--- a/data/Carbon_Footprint_Secondary.xlsx
+++ b/data/Carbon_Footprint_Secondary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923E446C-057B-4075-A6CD-31F75868BB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455E8BDC-A777-42D5-BBBD-A64FB2F526D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>Carbon_Footprint_Secondary</t>
   </si>
   <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Carbon footprint of secondary aluminium production</t>
+  </si>
+  <si>
+    <t>Carbon_Footprint_Scenario</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -904,7 +904,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1065,16 +1065,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>51</v>
@@ -1163,19 +1163,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/Carbon_Footprint_Secondary.xlsx
+++ b/data/Carbon_Footprint_Secondary.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB89420-2A7D-4D74-B3D3-A7597DD13F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6F3E0-665C-47EE-9C9D-FC0BA0CE8D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-315" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="4" r:id="rId2"/>
-    <sheet name="Data_old" sheetId="2" r:id="rId3"/>
-    <sheet name="Data_prep" sheetId="3" r:id="rId4"/>
+    <sheet name="Data_prep" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>ODYM-RECC Parameter File</t>
   </si>
@@ -216,21 +214,6 @@
     <t>Carbon_Footprint_Secondary</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Scenario1</t>
-  </si>
-  <si>
-    <t>Scenario2</t>
-  </si>
-  <si>
-    <t>Scenario3</t>
-  </si>
-  <si>
-    <t>Scenario4</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -268,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,12 +283,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,6 +370,1428 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Secondary Production carbon footprint scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BAU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$102:$B$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99D5-479F-8CB4-5A9949059D46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$102:$C$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89296874999999987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88593749999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87890624999999989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87187499999999984</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86484374999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85781249999999987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85078124999999982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84374999999999978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83671874999999973</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8296874999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.82265624999999976</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.81562499999999971</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.80859374999999978</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80156249999999973</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79453124999999969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78749999999999964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7804687499999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77343749999999967</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76640624999999962</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75937499999999958</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75234374999999964</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.7453124999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73828124999999956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73124999999999951</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.72421874999999947</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71718749999999953</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71015624999999949</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.70312499999999944</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.69609374999999951</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.68906249999999947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.68203124999999942</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67499999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99D5-479F-8CB4-5A9949059D46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IAI_B2DS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$102:$D$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88593749999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87187499999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85781249999999987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84374999999999978</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8296874999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81562499999999982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80156249999999973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78749999999999964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77343749999999967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75937499999999969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7453124999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73124999999999951</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71718749999999953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70312499999999956</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68906249999999947</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.67499999999999938</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6609374999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64687499999999942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63281249999999933</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61874999999999925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60468749999999927</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.59062499999999929</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5765624999999992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56249999999999911</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54843749999999913</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53437499999999916</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52031249999999907</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.50624999999999898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.492187499999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47812499999999897</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46406249999999893</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99D5-479F-8CB4-5A9949059D46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="912577672"/>
+        <c:axId val="528169896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="912577672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528169896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="528169896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>t Co2e/t Al</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912577672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3613,6 +5012,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4168,7 +5607,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6405F247-C3F7-4154-B023-9AABA346D72A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5246,16 +7242,16 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5293,7 +7289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -5311,12 +7307,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -5333,7 +7329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5355,7 +7351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -5377,7 +7373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -5397,7 +7393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5415,7 +7411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5433,7 +7429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -5448,7 +7444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -5466,7 +7462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -5484,12 +7480,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5502,7 +7498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -5520,7 +7516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -5538,7 +7534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -5550,7 +7546,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -5562,7 +7558,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -5574,7 +7570,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -5586,7 +7582,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -5598,7 +7594,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
@@ -5624,7 +7620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -5648,18 +7644,18 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>51</v>
@@ -5674,7 +7670,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="5" t="s">
         <v>1</v>
       </c>
@@ -5688,7 +7684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5700,7 +7696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5712,7 +7708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5722,7 +7718,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5740,24 +7736,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B104145-72CF-4536-9B2E-C849D28231C3}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1900</v>
       </c>
@@ -5774,7 +7770,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1901</v>
       </c>
@@ -5791,7 +7787,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1902</v>
       </c>
@@ -5808,7 +7804,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1903</v>
       </c>
@@ -5825,7 +7821,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1904</v>
       </c>
@@ -5842,7 +7838,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1905</v>
       </c>
@@ -5859,7 +7855,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1906</v>
       </c>
@@ -5876,7 +7872,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1907</v>
       </c>
@@ -5893,7 +7889,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1908</v>
       </c>
@@ -5910,7 +7906,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1909</v>
       </c>
@@ -5927,7 +7923,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -5944,7 +7940,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1911</v>
       </c>
@@ -5961,7 +7957,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1912</v>
       </c>
@@ -5978,7 +7974,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1913</v>
       </c>
@@ -5995,7 +7991,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1914</v>
       </c>
@@ -6012,7 +8008,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1915</v>
       </c>
@@ -6029,7 +8025,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1916</v>
       </c>
@@ -6046,7 +8042,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1917</v>
       </c>
@@ -6063,7 +8059,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1918</v>
       </c>
@@ -6080,7 +8076,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1919</v>
       </c>
@@ -6097,7 +8093,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1920</v>
       </c>
@@ -6114,7 +8110,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1921</v>
       </c>
@@ -6131,7 +8127,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1922</v>
       </c>
@@ -6148,7 +8144,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1923</v>
       </c>
@@ -6165,7 +8161,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1924</v>
       </c>
@@ -6182,7 +8178,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1925</v>
       </c>
@@ -6199,7 +8195,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1926</v>
       </c>
@@ -6216,7 +8212,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1927</v>
       </c>
@@ -6233,7 +8229,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1928</v>
       </c>
@@ -6250,7 +8246,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1929</v>
       </c>
@@ -6267,7 +8263,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1930</v>
       </c>
@@ -6284,7 +8280,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1931</v>
       </c>
@@ -6301,7 +8297,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1932</v>
       </c>
@@ -6318,7 +8314,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1933</v>
       </c>
@@ -6335,7 +8331,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1934</v>
       </c>
@@ -6352,7 +8348,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1935</v>
       </c>
@@ -6369,7 +8365,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1936</v>
       </c>
@@ -6386,7 +8382,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1937</v>
       </c>
@@ -6403,7 +8399,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1938</v>
       </c>
@@ -6420,7 +8416,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1939</v>
       </c>
@@ -6437,7 +8433,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1940</v>
       </c>
@@ -6454,7 +8450,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1941</v>
       </c>
@@ -6471,7 +8467,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1942</v>
       </c>
@@ -6488,7 +8484,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1943</v>
       </c>
@@ -6505,7 +8501,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1944</v>
       </c>
@@ -6522,7 +8518,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1945</v>
       </c>
@@ -6539,7 +8535,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1946</v>
       </c>
@@ -6556,7 +8552,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1947</v>
       </c>
@@ -6573,7 +8569,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1948</v>
       </c>
@@ -6590,7 +8586,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1949</v>
       </c>
@@ -6607,7 +8603,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1950</v>
       </c>
@@ -6624,7 +8620,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1951</v>
       </c>
@@ -6641,7 +8637,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1952</v>
       </c>
@@ -6658,7 +8654,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1953</v>
       </c>
@@ -6675,7 +8671,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1954</v>
       </c>
@@ -6692,7 +8688,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1955</v>
       </c>
@@ -6709,7 +8705,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1956</v>
       </c>
@@ -6726,7 +8722,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1957</v>
       </c>
@@ -6743,7 +8739,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1958</v>
       </c>
@@ -6760,7 +8756,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1959</v>
       </c>
@@ -6777,7 +8773,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1960</v>
       </c>
@@ -6794,7 +8790,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1961</v>
       </c>
@@ -6811,7 +8807,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1962</v>
       </c>
@@ -6828,7 +8824,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1963</v>
       </c>
@@ -6845,7 +8841,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1964</v>
       </c>
@@ -6862,7 +8858,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1965</v>
       </c>
@@ -6879,7 +8875,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1966</v>
       </c>
@@ -6896,7 +8892,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1967</v>
       </c>
@@ -6913,7 +8909,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1968</v>
       </c>
@@ -6930,7 +8926,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1969</v>
       </c>
@@ -6947,7 +8943,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1970</v>
       </c>
@@ -6964,7 +8960,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1971</v>
       </c>
@@ -6981,7 +8977,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1972</v>
       </c>
@@ -6998,7 +8994,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1973</v>
       </c>
@@ -7015,7 +9011,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1974</v>
       </c>
@@ -7032,7 +9028,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1975</v>
       </c>
@@ -7049,7 +9045,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1976</v>
       </c>
@@ -7066,7 +9062,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1977</v>
       </c>
@@ -7083,7 +9079,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1978</v>
       </c>
@@ -7100,7 +9096,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1979</v>
       </c>
@@ -7117,7 +9113,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1980</v>
       </c>
@@ -7134,7 +9130,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1981</v>
       </c>
@@ -7151,7 +9147,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1982</v>
       </c>
@@ -7168,7 +9164,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1983</v>
       </c>
@@ -7185,7 +9181,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1984</v>
       </c>
@@ -7202,7 +9198,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1985</v>
       </c>
@@ -7219,7 +9215,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1986</v>
       </c>
@@ -7236,7 +9232,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1987</v>
       </c>
@@ -7253,7 +9249,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1988</v>
       </c>
@@ -7270,7 +9266,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1989</v>
       </c>
@@ -7287,7 +9283,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1990</v>
       </c>
@@ -7304,7 +9300,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1991</v>
       </c>
@@ -7321,7 +9317,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1992</v>
       </c>
@@ -7338,7 +9334,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1993</v>
       </c>
@@ -7355,7 +9351,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1994</v>
       </c>
@@ -7372,7 +9368,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1995</v>
       </c>
@@ -7389,7 +9385,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1996</v>
       </c>
@@ -7406,7 +9402,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1997</v>
       </c>
@@ -7423,7 +9419,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1998</v>
       </c>
@@ -7440,7 +9436,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1999</v>
       </c>
@@ -7457,7 +9453,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2000</v>
       </c>
@@ -7474,7 +9470,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2001</v>
       </c>
@@ -7491,7 +9487,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2002</v>
       </c>
@@ -7508,7 +9504,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2003</v>
       </c>
@@ -7525,7 +9521,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2004</v>
       </c>
@@ -7542,7 +9538,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2005</v>
       </c>
@@ -7559,7 +9555,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2006</v>
       </c>
@@ -7576,7 +9572,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2007</v>
       </c>
@@ -7593,7 +9589,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2008</v>
       </c>
@@ -7610,7 +9606,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2009</v>
       </c>
@@ -7627,7 +9623,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2010</v>
       </c>
@@ -7644,7 +9640,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2011</v>
       </c>
@@ -7661,7 +9657,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2012</v>
       </c>
@@ -7678,7 +9674,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2013</v>
       </c>
@@ -7695,7 +9691,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2014</v>
       </c>
@@ -7712,7 +9708,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2015</v>
       </c>
@@ -7729,7 +9725,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2016</v>
       </c>
@@ -7746,7 +9742,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
@@ -7763,7 +9759,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2018</v>
       </c>
@@ -7780,7 +9776,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2019</v>
       </c>
@@ -7797,7 +9793,7 @@
         <v>0.88593749999999993</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2020</v>
       </c>
@@ -7814,7 +9810,7 @@
         <v>0.87187499999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2021</v>
       </c>
@@ -7831,7 +9827,7 @@
         <v>0.85781249999999987</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2022</v>
       </c>
@@ -7848,7 +9844,7 @@
         <v>0.84374999999999978</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2023</v>
       </c>
@@ -7865,7 +9861,7 @@
         <v>0.8296874999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2024</v>
       </c>
@@ -7882,7 +9878,7 @@
         <v>0.81562499999999982</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2025</v>
       </c>
@@ -7899,7 +9895,7 @@
         <v>0.80156249999999973</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2026</v>
       </c>
@@ -7916,7 +9912,7 @@
         <v>0.78749999999999964</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2027</v>
       </c>
@@ -7933,7 +9929,7 @@
         <v>0.77343749999999967</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2028</v>
       </c>
@@ -7950,7 +9946,7 @@
         <v>0.75937499999999969</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2029</v>
       </c>
@@ -7967,7 +9963,7 @@
         <v>0.7453124999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2030</v>
       </c>
@@ -7984,7 +9980,7 @@
         <v>0.73124999999999951</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2031</v>
       </c>
@@ -8001,7 +9997,7 @@
         <v>0.71718749999999953</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2032</v>
       </c>
@@ -8018,7 +10014,7 @@
         <v>0.70312499999999956</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2033</v>
       </c>
@@ -8035,7 +10031,7 @@
         <v>0.68906249999999947</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2034</v>
       </c>
@@ -8052,7 +10048,7 @@
         <v>0.67499999999999938</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2035</v>
       </c>
@@ -8069,7 +10065,7 @@
         <v>0.6609374999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2036</v>
       </c>
@@ -8086,7 +10082,7 @@
         <v>0.64687499999999942</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2037</v>
       </c>
@@ -8103,7 +10099,7 @@
         <v>0.63281249999999933</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2038</v>
       </c>
@@ -8120,7 +10116,7 @@
         <v>0.61874999999999925</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2039</v>
       </c>
@@ -8137,7 +10133,7 @@
         <v>0.60468749999999927</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2040</v>
       </c>
@@ -8154,7 +10150,7 @@
         <v>0.59062499999999929</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2041</v>
       </c>
@@ -8171,7 +10167,7 @@
         <v>0.5765624999999992</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2042</v>
       </c>
@@ -8188,7 +10184,7 @@
         <v>0.56249999999999911</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2043</v>
       </c>
@@ -8205,7 +10201,7 @@
         <v>0.54843749999999913</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2044</v>
       </c>
@@ -8222,7 +10218,7 @@
         <v>0.53437499999999916</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2045</v>
       </c>
@@ -8239,7 +10235,7 @@
         <v>0.52031249999999907</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2046</v>
       </c>
@@ -8256,7 +10252,7 @@
         <v>0.50624999999999898</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2047</v>
       </c>
@@ -8273,7 +10269,7 @@
         <v>0.492187499999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2048</v>
       </c>
@@ -8290,7 +10286,7 @@
         <v>0.47812499999999897</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2049</v>
       </c>
@@ -8307,7 +10303,7 @@
         <v>0.46406249999999893</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2050</v>
       </c>
@@ -8326,3105 +10322,53 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B481CB-FC39-456D-A965-38066FA722C2}">
-  <dimension ref="A1:F152"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1901</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1902</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1903</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1904</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1905</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1906</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1907</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1908</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1910</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1911</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1912</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>1913</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>1914</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>1915</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>1916</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>1917</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>1918</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>1919</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1920</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>1921</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1922</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1923</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>1924</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>1925</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1926</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>1927</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>1928</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>1929</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>1932</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>1933</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>1934</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>1935</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>1936</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>1937</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>1938</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>1939</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>1940</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>1948</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>1949</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>1950</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>1951</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>1952</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>1953</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>1954</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>1955</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>1956</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>1957</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>1958</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F61" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>1960</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>1961</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>1962</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>1963</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>1965</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>1966</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>1967</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>1968</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F70" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>1969</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>1970</v>
-      </c>
-      <c r="B72" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F72" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>1971</v>
-      </c>
-      <c r="B73" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E73" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F73" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>1972</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>1973</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>1974</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C76" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>1975</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F77" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>1976</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F78" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>1977</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F79" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>1978</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D80" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F80" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>1979</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F81" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>1980</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>1981</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C83" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F83" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B84" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C84" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F85" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D87" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D88" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F89" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B90" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D90" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F90" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D91" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F91" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B92" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F92" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>1991</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F93" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>1992</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F94" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>1993</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F95" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F96" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B97" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C97" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D97" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F97" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D98" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F98" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B99" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F99" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D100" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F100" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B101" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C101" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D101" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F101" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D102" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C103" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D103" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F103" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B104" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C104" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D104" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F104" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B105" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C105" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D105" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F105" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C106" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D106" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F106" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C107" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D107" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F107" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B108" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F108" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D109" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D110" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F110" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B111" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C111" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D111" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F111" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B112" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D112" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F112" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B113" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D113" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F113" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B114" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C114" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D114" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B115" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D115" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B116" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C116" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D116" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B117" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C117" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D117" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B118" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D118" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B119" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C119" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D119" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F119" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B120" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F120" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B121" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C121" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D121" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F121" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B122" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D122" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F122" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D123" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E123" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F123" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C124" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D124" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F124" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B125" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D125" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F125" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B126" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C126" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D126" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F126" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B127" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C127" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D127" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E127" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F127" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>2026</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C128" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D128" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E128" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F128" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>2027</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C129" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D129" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E129" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F129" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>2028</v>
-      </c>
-      <c r="B130" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D130" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F130" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B131" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C131" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D131" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E131" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F131" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B132" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C132" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D132" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E132" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F132" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B133" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C133" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D133" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E133" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F133" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B134" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D134" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E134" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F134" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B135" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D135" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F135" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B136" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C136" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D136" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F136" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B137" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D137" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E137" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F137" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>2036</v>
-      </c>
-      <c r="B138" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C138" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D138" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E138" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F138" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>2037</v>
-      </c>
-      <c r="B139" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C139" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D139" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F139" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>2038</v>
-      </c>
-      <c r="B140" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D140" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E140" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F140" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>2039</v>
-      </c>
-      <c r="B141" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E141" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F141" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>2040</v>
-      </c>
-      <c r="B142" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C142" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D142" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E142" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F142" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>2041</v>
-      </c>
-      <c r="B143" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C143" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D143" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E143" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F143" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>2042</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D144" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F144" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>2043</v>
-      </c>
-      <c r="B145" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D145" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E145" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F145" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>2044</v>
-      </c>
-      <c r="B146" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D146" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E146" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F146" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>2045</v>
-      </c>
-      <c r="B147" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D147" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E147" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F147" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>2046</v>
-      </c>
-      <c r="B148" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C148" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D148" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E148" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F148" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>2047</v>
-      </c>
-      <c r="B149" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C149" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D149" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F149" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B150" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C150" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D150" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E150" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F150" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>2049</v>
-      </c>
-      <c r="B151" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D151" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E151" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F151" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B152" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C152" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D152" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E152" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="F152" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD439C0-9D31-45BF-BF24-D7490C893411}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="Z137" sqref="Z137"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1900</v>
       </c>
@@ -11460,7 +10404,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1901</v>
       </c>
@@ -11496,7 +10440,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1902</v>
       </c>
@@ -11532,7 +10476,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1903</v>
       </c>
@@ -11568,7 +10512,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1904</v>
       </c>
@@ -11604,7 +10548,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1905</v>
       </c>
@@ -11640,7 +10584,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1906</v>
       </c>
@@ -11676,7 +10620,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1907</v>
       </c>
@@ -11712,7 +10656,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1908</v>
       </c>
@@ -11748,7 +10692,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1909</v>
       </c>
@@ -11784,7 +10728,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1910</v>
       </c>
@@ -11820,7 +10764,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1911</v>
       </c>
@@ -11856,7 +10800,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1912</v>
       </c>
@@ -11892,7 +10836,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1913</v>
       </c>
@@ -11928,7 +10872,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1914</v>
       </c>
@@ -11964,7 +10908,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1915</v>
       </c>
@@ -12000,7 +10944,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1916</v>
       </c>
@@ -12036,7 +10980,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1917</v>
       </c>
@@ -12072,7 +11016,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1918</v>
       </c>
@@ -12108,7 +11052,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1919</v>
       </c>
@@ -12144,7 +11088,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1920</v>
       </c>
@@ -12180,7 +11124,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1921</v>
       </c>
@@ -12216,7 +11160,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1922</v>
       </c>
@@ -12252,7 +11196,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1923</v>
       </c>
@@ -12288,7 +11232,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1924</v>
       </c>
@@ -12324,7 +11268,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1925</v>
       </c>
@@ -12360,7 +11304,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1926</v>
       </c>
@@ -12396,7 +11340,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1927</v>
       </c>
@@ -12432,7 +11376,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1928</v>
       </c>
@@ -12468,7 +11412,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1929</v>
       </c>
@@ -12504,7 +11448,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1930</v>
       </c>
@@ -12540,7 +11484,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1931</v>
       </c>
@@ -12576,7 +11520,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1932</v>
       </c>
@@ -12612,7 +11556,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1933</v>
       </c>
@@ -12648,7 +11592,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1934</v>
       </c>
@@ -12684,7 +11628,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1935</v>
       </c>
@@ -12720,7 +11664,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1936</v>
       </c>
@@ -12756,7 +11700,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1937</v>
       </c>
@@ -12792,7 +11736,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1938</v>
       </c>
@@ -12828,7 +11772,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1939</v>
       </c>
@@ -12864,7 +11808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1940</v>
       </c>
@@ -12900,7 +11844,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1941</v>
       </c>
@@ -12936,7 +11880,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1942</v>
       </c>
@@ -12972,7 +11916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1943</v>
       </c>
@@ -13008,7 +11952,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1944</v>
       </c>
@@ -13044,7 +11988,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1945</v>
       </c>
@@ -13080,7 +12024,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1946</v>
       </c>
@@ -13116,7 +12060,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1947</v>
       </c>
@@ -13152,7 +12096,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1948</v>
       </c>
@@ -13188,7 +12132,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1949</v>
       </c>
@@ -13224,7 +12168,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1950</v>
       </c>
@@ -13260,7 +12204,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1951</v>
       </c>
@@ -13296,7 +12240,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1952</v>
       </c>
@@ -13332,7 +12276,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1953</v>
       </c>
@@ -13368,7 +12312,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1954</v>
       </c>
@@ -13404,7 +12348,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1955</v>
       </c>
@@ -13440,7 +12384,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1956</v>
       </c>
@@ -13476,7 +12420,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1957</v>
       </c>
@@ -13512,7 +12456,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1958</v>
       </c>
@@ -13548,7 +12492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1959</v>
       </c>
@@ -13584,7 +12528,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1960</v>
       </c>
@@ -13620,7 +12564,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1961</v>
       </c>
@@ -13656,7 +12600,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1962</v>
       </c>
@@ -13692,7 +12636,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1963</v>
       </c>
@@ -13728,7 +12672,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1964</v>
       </c>
@@ -13757,14 +12701,14 @@
         <v>1964</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" ref="L67:M130" si="3">0.3</f>
+        <f t="shared" ref="L67:L130" si="3">0.3</f>
         <v>0.3</v>
       </c>
       <c r="M67" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1965</v>
       </c>
@@ -13800,7 +12744,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1966</v>
       </c>
@@ -13836,7 +12780,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1967</v>
       </c>
@@ -13872,7 +12816,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1968</v>
       </c>
@@ -13908,7 +12852,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1969</v>
       </c>
@@ -13944,7 +12888,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1970</v>
       </c>
@@ -13980,7 +12924,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1971</v>
       </c>
@@ -14016,7 +12960,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1972</v>
       </c>
@@ -14052,7 +12996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1973</v>
       </c>
@@ -14088,7 +13032,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1974</v>
       </c>
@@ -14124,7 +13068,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1975</v>
       </c>
@@ -14160,7 +13104,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1976</v>
       </c>
@@ -14196,7 +13140,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1977</v>
       </c>
@@ -14232,7 +13176,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1978</v>
       </c>
@@ -14268,7 +13212,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1979</v>
       </c>
@@ -14304,7 +13248,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1980</v>
       </c>
@@ -14340,7 +13284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1981</v>
       </c>
@@ -14376,7 +13320,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1982</v>
       </c>
@@ -14412,7 +13356,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1983</v>
       </c>
@@ -14448,7 +13392,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1984</v>
       </c>
@@ -14484,7 +13428,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1985</v>
       </c>
@@ -14520,7 +13464,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1986</v>
       </c>
@@ -14556,7 +13500,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1987</v>
       </c>
@@ -14592,7 +13536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1988</v>
       </c>
@@ -14628,7 +13572,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1989</v>
       </c>
@@ -14664,7 +13608,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1990</v>
       </c>
@@ -14700,7 +13644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1991</v>
       </c>
@@ -14736,7 +13680,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1992</v>
       </c>
@@ -14772,7 +13716,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1993</v>
       </c>
@@ -14808,7 +13752,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1994</v>
       </c>
@@ -14844,7 +13788,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1995</v>
       </c>
@@ -14880,7 +13824,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1996</v>
       </c>
@@ -14916,7 +13860,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1997</v>
       </c>
@@ -14952,7 +13896,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1998</v>
       </c>
@@ -14988,7 +13932,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1999</v>
       </c>
@@ -15024,7 +13968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2000</v>
       </c>
@@ -15060,7 +14004,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2001</v>
       </c>
@@ -15096,7 +14040,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2002</v>
       </c>
@@ -15132,7 +14076,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2003</v>
       </c>
@@ -15168,7 +14112,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2004</v>
       </c>
@@ -15204,7 +14148,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2005</v>
       </c>
@@ -15240,7 +14184,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2006</v>
       </c>
@@ -15276,7 +14220,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2007</v>
       </c>
@@ -15312,7 +14256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2008</v>
       </c>
@@ -15348,7 +14292,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2009</v>
       </c>
@@ -15384,7 +14328,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2010</v>
       </c>
@@ -15420,7 +14364,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2011</v>
       </c>
@@ -15456,7 +14400,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2012</v>
       </c>
@@ -15492,7 +14436,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2013</v>
       </c>
@@ -15528,7 +14472,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2014</v>
       </c>
@@ -15564,7 +14508,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2015</v>
       </c>
@@ -15600,7 +14544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2016</v>
       </c>
@@ -15636,7 +14580,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2017</v>
       </c>
@@ -15672,7 +14616,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2018</v>
       </c>
@@ -15708,7 +14652,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2019</v>
       </c>
@@ -15746,7 +14690,7 @@
         <v>0.29531249999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2020</v>
       </c>
@@ -15784,7 +14728,7 @@
         <v>0.29062499999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2021</v>
       </c>
@@ -15822,7 +14766,7 @@
         <v>0.28593749999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2022</v>
       </c>
@@ -15860,7 +14804,7 @@
         <v>0.28124999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2023</v>
       </c>
@@ -15898,7 +14842,7 @@
         <v>0.27656249999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2024</v>
       </c>
@@ -15936,7 +14880,7 @@
         <v>0.27187499999999992</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2025</v>
       </c>
@@ -15974,7 +14918,7 @@
         <v>0.26718749999999991</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2026</v>
       </c>
@@ -16012,7 +14956,7 @@
         <v>0.2624999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2027</v>
       </c>
@@ -16050,7 +14994,7 @@
         <v>0.25781249999999989</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2028</v>
       </c>
@@ -16088,7 +15032,7 @@
         <v>0.25312499999999988</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2029</v>
       </c>
@@ -16126,7 +15070,7 @@
         <v>0.24843749999999987</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2030</v>
       </c>
@@ -16164,7 +15108,7 @@
         <v>0.24374999999999986</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2031</v>
       </c>
@@ -16202,7 +15146,7 @@
         <v>0.23906249999999984</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2032</v>
       </c>
@@ -16240,7 +15184,7 @@
         <v>0.23437499999999983</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2033</v>
       </c>
@@ -16278,7 +15222,7 @@
         <v>0.22968749999999982</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2034</v>
       </c>
@@ -16316,7 +15260,7 @@
         <v>0.22499999999999981</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2035</v>
       </c>
@@ -16354,7 +15298,7 @@
         <v>0.2203124999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2036</v>
       </c>
@@ -16392,7 +15336,7 @@
         <v>0.21562499999999979</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2037</v>
       </c>
@@ -16430,7 +15374,7 @@
         <v>0.21093749999999978</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2038</v>
       </c>
@@ -16468,7 +15412,7 @@
         <v>0.20624999999999977</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2039</v>
       </c>
@@ -16506,7 +15450,7 @@
         <v>0.20156249999999976</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2040</v>
       </c>
@@ -16544,7 +15488,7 @@
         <v>0.19687499999999974</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2041</v>
       </c>
@@ -16582,7 +15526,7 @@
         <v>0.19218749999999973</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2042</v>
       </c>
@@ -16620,7 +15564,7 @@
         <v>0.18749999999999972</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2043</v>
       </c>
@@ -16658,7 +15602,7 @@
         <v>0.18281249999999971</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2044</v>
       </c>
@@ -16696,7 +15640,7 @@
         <v>0.1781249999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2045</v>
       </c>
@@ -16734,7 +15678,7 @@
         <v>0.17343749999999969</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2046</v>
       </c>
@@ -16772,7 +15716,7 @@
         <v>0.16874999999999968</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2047</v>
       </c>
@@ -16810,7 +15754,7 @@
         <v>0.16406249999999967</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2048</v>
       </c>
@@ -16848,7 +15792,7 @@
         <v>0.15937499999999966</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2049</v>
       </c>
@@ -16886,7 +15830,7 @@
         <v>0.15468749999999964</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2050</v>
       </c>
@@ -16923,6 +15867,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Carbon_Footprint_Secondary.xlsx
+++ b/data/Carbon_Footprint_Secondary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6F3E0-665C-47EE-9C9D-FC0BA0CE8D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BF313-5ECF-4DC7-B6E4-1F98184D17AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -6216,7 +6216,7 @@
       <sheetName val="Data_prep"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="102">
           <cell r="A102">
@@ -6933,7 +6933,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7736,7 +7736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B104145-72CF-4536-9B2E-C849D28231C3}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -10331,7 +10331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD439C0-9D31-45BF-BF24-D7490C893411}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>

--- a/data/Carbon_Footprint_Secondary.xlsx
+++ b/data/Carbon_Footprint_Secondary.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BF313-5ECF-4DC7-B6E4-1F98184D17AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E3693-4C3A-4612-9DA0-80F86AAFB40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{14E8540C-EDEE-4050-9B8C-8C7F8EC6EA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="4" r:id="rId2"/>
     <sheet name="Data_prep" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -453,7 +450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BAU</c:v>
+                  <c:v>Constant</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6207,738 +6204,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Data"/>
-      <sheetName val="Data_prep"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="102">
-          <cell r="A102">
-            <v>2000</v>
-          </cell>
-          <cell r="B102">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="C102">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="D102">
-            <v>17.71089224218062</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>2001</v>
-          </cell>
-          <cell r="B103">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="C103">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="D103">
-            <v>17.71089224218062</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>2002</v>
-          </cell>
-          <cell r="B104">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="C104">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="D104">
-            <v>17.71089224218062</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>2003</v>
-          </cell>
-          <cell r="B105">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="C105">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="D105">
-            <v>17.71089224218062</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>2004</v>
-          </cell>
-          <cell r="B106">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="C106">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="D106">
-            <v>17.71089224218062</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>2005</v>
-          </cell>
-          <cell r="B107">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="C107">
-            <v>17.71089224218062</v>
-          </cell>
-          <cell r="D107">
-            <v>17.71089224218062</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>2006</v>
-          </cell>
-          <cell r="B108">
-            <v>18.505836116044783</v>
-          </cell>
-          <cell r="C108">
-            <v>18.505836116044783</v>
-          </cell>
-          <cell r="D108">
-            <v>18.505836116044783</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>2007</v>
-          </cell>
-          <cell r="B109">
-            <v>18.842946447321911</v>
-          </cell>
-          <cell r="C109">
-            <v>18.842946447321911</v>
-          </cell>
-          <cell r="D109">
-            <v>18.842946447321911</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>2008</v>
-          </cell>
-          <cell r="B110">
-            <v>18.456260621912495</v>
-          </cell>
-          <cell r="C110">
-            <v>18.456260621912495</v>
-          </cell>
-          <cell r="D110">
-            <v>18.456260621912495</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>2009</v>
-          </cell>
-          <cell r="B111">
-            <v>18.106913183078134</v>
-          </cell>
-          <cell r="C111">
-            <v>18.106913183078134</v>
-          </cell>
-          <cell r="D111">
-            <v>18.106913183078134</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>2010</v>
-          </cell>
-          <cell r="B112">
-            <v>17.463165009112874</v>
-          </cell>
-          <cell r="C112">
-            <v>17.463165009112874</v>
-          </cell>
-          <cell r="D112">
-            <v>17.463165009112874</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>2011</v>
-          </cell>
-          <cell r="B113">
-            <v>17.688074803973674</v>
-          </cell>
-          <cell r="C113">
-            <v>17.688074803973674</v>
-          </cell>
-          <cell r="D113">
-            <v>17.688074803973674</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>2012</v>
-          </cell>
-          <cell r="B114">
-            <v>18.174037618731763</v>
-          </cell>
-          <cell r="C114">
-            <v>18.174037618731763</v>
-          </cell>
-          <cell r="D114">
-            <v>18.174037618731763</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>2013</v>
-          </cell>
-          <cell r="B115">
-            <v>18.041895342779902</v>
-          </cell>
-          <cell r="C115">
-            <v>18.041895342779902</v>
-          </cell>
-          <cell r="D115">
-            <v>18.041895342779902</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>2014</v>
-          </cell>
-          <cell r="B116">
-            <v>18.067924587946695</v>
-          </cell>
-          <cell r="C116">
-            <v>18.067924587946695</v>
-          </cell>
-          <cell r="D116">
-            <v>18.067924587946695</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>2015</v>
-          </cell>
-          <cell r="B117">
-            <v>16.970000000000002</v>
-          </cell>
-          <cell r="C117">
-            <v>16.970000000000002</v>
-          </cell>
-          <cell r="D117">
-            <v>16.970000000000002</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>2016</v>
-          </cell>
-          <cell r="B118">
-            <v>16.885359650208649</v>
-          </cell>
-          <cell r="C118">
-            <v>16.885359650208649</v>
-          </cell>
-          <cell r="D118">
-            <v>16.885359650208649</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>2017</v>
-          </cell>
-          <cell r="B119">
-            <v>16.892102171097623</v>
-          </cell>
-          <cell r="C119">
-            <v>16.892102171097623</v>
-          </cell>
-          <cell r="D119">
-            <v>16.892102171097623</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>2018</v>
-          </cell>
-          <cell r="B120">
-            <v>16.912131261756848</v>
-          </cell>
-          <cell r="C120">
-            <v>16.912131261756848</v>
-          </cell>
-          <cell r="D120">
-            <v>16.912131261756848</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>2019</v>
-          </cell>
-          <cell r="B121">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C121">
-            <v>16.807862195425926</v>
-          </cell>
-          <cell r="D121">
-            <v>16.807862195425926</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>2020</v>
-          </cell>
-          <cell r="B122">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C122">
-            <v>16.643511086750841</v>
-          </cell>
-          <cell r="D122">
-            <v>16.66567017765993</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>2021</v>
-          </cell>
-          <cell r="B123">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C123">
-            <v>16.479159978075756</v>
-          </cell>
-          <cell r="D123">
-            <v>16.523478159893937</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>2022</v>
-          </cell>
-          <cell r="B124">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C124">
-            <v>16.314808869400672</v>
-          </cell>
-          <cell r="D124">
-            <v>16.381286142127944</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>2023</v>
-          </cell>
-          <cell r="B125">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C125">
-            <v>16.150457760725587</v>
-          </cell>
-          <cell r="D125">
-            <v>16.239094124361952</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>2024</v>
-          </cell>
-          <cell r="B126">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C126">
-            <v>15.986106652050502</v>
-          </cell>
-          <cell r="D126">
-            <v>16.096902106595959</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>2025</v>
-          </cell>
-          <cell r="B127">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C127">
-            <v>15.821755543375417</v>
-          </cell>
-          <cell r="D127">
-            <v>15.954710088829964</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>2026</v>
-          </cell>
-          <cell r="B128">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C128">
-            <v>15.657404434700332</v>
-          </cell>
-          <cell r="D128">
-            <v>15.81251807106397</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>2027</v>
-          </cell>
-          <cell r="B129">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C129">
-            <v>15.493053326025247</v>
-          </cell>
-          <cell r="D129">
-            <v>15.670326053297977</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>2028</v>
-          </cell>
-          <cell r="B130">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C130">
-            <v>15.328702217350163</v>
-          </cell>
-          <cell r="D130">
-            <v>15.528134035531984</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>2029</v>
-          </cell>
-          <cell r="B131">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C131">
-            <v>15.164351108675078</v>
-          </cell>
-          <cell r="D131">
-            <v>15.38594201776599</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>2030</v>
-          </cell>
-          <cell r="B132">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C132">
-            <v>15</v>
-          </cell>
-          <cell r="D132">
-            <v>15.24375</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>2031</v>
-          </cell>
-          <cell r="B133">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C133">
-            <v>14.75</v>
-          </cell>
-          <cell r="D133">
-            <v>14.614062499999999</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>2032</v>
-          </cell>
-          <cell r="B134">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C134">
-            <v>14.5</v>
-          </cell>
-          <cell r="D134">
-            <v>13.984375</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>2033</v>
-          </cell>
-          <cell r="B135">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C135">
-            <v>14.25</v>
-          </cell>
-          <cell r="D135">
-            <v>13.354687500000001</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>2034</v>
-          </cell>
-          <cell r="B136">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C136">
-            <v>14</v>
-          </cell>
-          <cell r="D136">
-            <v>12.725</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>2035</v>
-          </cell>
-          <cell r="B137">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C137">
-            <v>13.75</v>
-          </cell>
-          <cell r="D137">
-            <v>12.0953125</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>2036</v>
-          </cell>
-          <cell r="B138">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C138">
-            <v>13.5</v>
-          </cell>
-          <cell r="D138">
-            <v>11.465624999999999</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>2037</v>
-          </cell>
-          <cell r="B139">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C139">
-            <v>13.25</v>
-          </cell>
-          <cell r="D139">
-            <v>10.8359375</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>2038</v>
-          </cell>
-          <cell r="B140">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C140">
-            <v>13</v>
-          </cell>
-          <cell r="D140">
-            <v>10.206249999999999</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>2039</v>
-          </cell>
-          <cell r="B141">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C141">
-            <v>12.75</v>
-          </cell>
-          <cell r="D141">
-            <v>9.5765624999999996</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>2040</v>
-          </cell>
-          <cell r="B142">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C142">
-            <v>12.5</v>
-          </cell>
-          <cell r="D142">
-            <v>8.9468750000000004</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>2041</v>
-          </cell>
-          <cell r="B143">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C143">
-            <v>12.25</v>
-          </cell>
-          <cell r="D143">
-            <v>8.3171874999999993</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>2042</v>
-          </cell>
-          <cell r="B144">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C144">
-            <v>12</v>
-          </cell>
-          <cell r="D144">
-            <v>7.6875</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>2043</v>
-          </cell>
-          <cell r="B145">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C145">
-            <v>11.75</v>
-          </cell>
-          <cell r="D145">
-            <v>7.0578124999999998</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>2044</v>
-          </cell>
-          <cell r="B146">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C146">
-            <v>11.5</v>
-          </cell>
-          <cell r="D146">
-            <v>6.4281249999999996</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>2045</v>
-          </cell>
-          <cell r="B147">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C147">
-            <v>11.25</v>
-          </cell>
-          <cell r="D147">
-            <v>5.7984374999999995</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>2046</v>
-          </cell>
-          <cell r="B148">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C148">
-            <v>11</v>
-          </cell>
-          <cell r="D148">
-            <v>5.1687499999999993</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>2047</v>
-          </cell>
-          <cell r="B149">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C149">
-            <v>10.75</v>
-          </cell>
-          <cell r="D149">
-            <v>4.5390625</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>2048</v>
-          </cell>
-          <cell r="B150">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C150">
-            <v>10.5</v>
-          </cell>
-          <cell r="D150">
-            <v>3.9093749999999998</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>2049</v>
-          </cell>
-          <cell r="B151">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C151">
-            <v>10.25</v>
-          </cell>
-          <cell r="D151">
-            <v>3.2796874999999996</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>2050</v>
-          </cell>
-          <cell r="B152">
-            <v>16.812549695425925</v>
-          </cell>
-          <cell r="C152">
-            <v>10</v>
-          </cell>
-          <cell r="D152">
-            <v>2.65</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7736,15 +7001,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B104145-72CF-4536-9B2E-C849D28231C3}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>63</v>
@@ -9266,7 +8531,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1989</v>
       </c>
@@ -9283,7 +8548,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1990</v>
       </c>
@@ -9300,7 +8565,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1991</v>
       </c>
@@ -9317,7 +8582,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1992</v>
       </c>
@@ -9334,7 +8599,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1993</v>
       </c>
@@ -9351,7 +8616,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1994</v>
       </c>
@@ -9368,7 +8633,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1995</v>
       </c>
@@ -9385,7 +8650,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1996</v>
       </c>
@@ -9402,7 +8667,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1997</v>
       </c>
@@ -9419,7 +8684,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1998</v>
       </c>
@@ -9436,7 +8701,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1999</v>
       </c>
@@ -9453,7 +8718,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2000</v>
       </c>
@@ -9470,7 +8735,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2001</v>
       </c>
@@ -9487,7 +8752,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2002</v>
       </c>
@@ -9504,7 +8769,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2003</v>
       </c>
@@ -9521,7 +8786,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2004</v>
       </c>
@@ -9538,7 +8803,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2005</v>
       </c>
@@ -9555,7 +8820,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2006</v>
       </c>
@@ -9572,7 +8837,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2007</v>
       </c>
@@ -9589,7 +8854,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2008</v>
       </c>
@@ -9606,7 +8871,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2009</v>
       </c>
@@ -9623,7 +8888,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2010</v>
       </c>
@@ -9640,7 +8905,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2011</v>
       </c>
@@ -9657,7 +8922,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2012</v>
       </c>
@@ -9674,7 +8939,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2013</v>
       </c>
@@ -9691,7 +8956,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2014</v>
       </c>
@@ -9708,7 +8973,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2015</v>
       </c>
@@ -9725,7 +8990,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2016</v>
       </c>
@@ -9742,7 +9007,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
@@ -9759,7 +9024,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2018</v>
       </c>
@@ -9776,7 +9041,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2019</v>
       </c>
@@ -9793,7 +9058,7 @@
         <v>0.88593749999999993</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2020</v>
       </c>
@@ -9810,7 +9075,7 @@
         <v>0.87187499999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2021</v>
       </c>
@@ -9827,7 +9092,7 @@
         <v>0.85781249999999987</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2022</v>
       </c>
@@ -9844,7 +9109,7 @@
         <v>0.84374999999999978</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2023</v>
       </c>
@@ -9861,7 +9126,7 @@
         <v>0.8296874999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2024</v>
       </c>
@@ -9878,7 +9143,7 @@
         <v>0.81562499999999982</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2025</v>
       </c>
@@ -9895,7 +9160,7 @@
         <v>0.80156249999999973</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2026</v>
       </c>
@@ -9912,7 +9177,7 @@
         <v>0.78749999999999964</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2027</v>
       </c>
@@ -9929,7 +9194,7 @@
         <v>0.77343749999999967</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2028</v>
       </c>
@@ -9946,7 +9211,7 @@
         <v>0.75937499999999969</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2029</v>
       </c>
@@ -9963,7 +9228,7 @@
         <v>0.7453124999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2030</v>
       </c>
@@ -9980,7 +9245,7 @@
         <v>0.73124999999999951</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2031</v>
       </c>
@@ -9997,7 +9262,7 @@
         <v>0.71718749999999953</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2032</v>
       </c>
@@ -10014,7 +9279,7 @@
         <v>0.70312499999999956</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2033</v>
       </c>
@@ -10031,7 +9296,7 @@
         <v>0.68906249999999947</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2034</v>
       </c>
@@ -10048,7 +9313,7 @@
         <v>0.67499999999999938</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2035</v>
       </c>
@@ -10065,7 +9330,7 @@
         <v>0.6609374999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2036</v>
       </c>
@@ -10082,7 +9347,7 @@
         <v>0.64687499999999942</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2037</v>
       </c>
@@ -10099,7 +9364,7 @@
         <v>0.63281249999999933</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2038</v>
       </c>
@@ -10116,7 +9381,7 @@
         <v>0.61874999999999925</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2039</v>
       </c>
@@ -10133,7 +9398,7 @@
         <v>0.60468749999999927</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2040</v>
       </c>
@@ -10150,7 +9415,7 @@
         <v>0.59062499999999929</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2041</v>
       </c>
@@ -10167,7 +9432,7 @@
         <v>0.5765624999999992</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2042</v>
       </c>
@@ -10184,7 +9449,7 @@
         <v>0.56249999999999911</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2043</v>
       </c>
@@ -10201,7 +9466,7 @@
         <v>0.54843749999999913</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2044</v>
       </c>
@@ -10218,7 +9483,7 @@
         <v>0.53437499999999916</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2045</v>
       </c>
@@ -10235,7 +9500,7 @@
         <v>0.52031249999999907</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2046</v>
       </c>
@@ -10252,7 +9517,7 @@
         <v>0.50624999999999898</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2047</v>
       </c>
@@ -10269,7 +9534,7 @@
         <v>0.492187499999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2048</v>
       </c>
@@ -10286,7 +9551,7 @@
         <v>0.47812499999999897</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2049</v>
       </c>
@@ -10303,7 +9568,7 @@
         <v>0.46406249999999893</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2050</v>
       </c>
